--- a/xls/QA - 1 Medium.xlsx
+++ b/xls/QA - 1 Medium.xlsx
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
